--- a/CAP2007.xlsx
+++ b/CAP2007.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/042dce6ef3d668d8/Documenten/HBO/Jaar 4/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="15" documentId="8_{D47A381B-4367-4678-BE4E-420EFB0EE1E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{45132604-D1E6-49A9-8A88-F3B8DD3A72AB}"/>
+  <xr:revisionPtr revIDLastSave="76" documentId="8_{D47A381B-4367-4678-BE4E-420EFB0EE1E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B3628AD7-4D46-494A-8EEB-2512D58C1590}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E0F78D50-D724-419E-84C0-CAA4E20DF915}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="565" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="607" uniqueCount="44">
   <si>
     <t>Method name</t>
   </si>
@@ -162,6 +162,12 @@
   <si>
     <t>Vitros 5,1 FS Chem Syst</t>
   </si>
+  <si>
+    <t>Bio-Rad Variant</t>
+  </si>
+  <si>
+    <t>Primus</t>
+  </si>
 </sst>
 </file>
 
@@ -170,7 +176,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -218,6 +224,16 @@
       <name val="Times New Roman"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <name val="Times New Roman Bold"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Times New Roman"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -255,7 +271,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -288,6 +304,18 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="1" fontId="9" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
@@ -605,10 +633,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DCAFF67-BE82-4000-8178-4D706AD19796}">
-  <dimension ref="A1:J124"/>
+  <dimension ref="A1:J133"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M3" sqref="M3"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="E63" sqref="E63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1725,18 +1753,18 @@
       </c>
     </row>
     <row r="38" spans="1:10" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="B38" s="4">
-        <v>17</v>
-      </c>
-      <c r="C38" s="5">
-        <v>5.2</v>
+      <c r="A38" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="B38" s="13">
+        <v>10</v>
+      </c>
+      <c r="C38" s="14">
+        <v>5.4</v>
       </c>
       <c r="D38" s="5"/>
-      <c r="E38" s="6">
-        <v>2.6</v>
+      <c r="E38" s="15">
+        <v>6.5</v>
       </c>
       <c r="F38" s="7" t="s">
         <v>11</v>
@@ -1755,18 +1783,18 @@
       </c>
     </row>
     <row r="39" spans="1:10" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="B39" s="4">
-        <v>17</v>
-      </c>
-      <c r="C39" s="5">
-        <v>11.5</v>
+      <c r="A39" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="B39" s="13">
+        <v>10</v>
+      </c>
+      <c r="C39" s="14">
+        <v>14.1</v>
       </c>
       <c r="D39" s="5"/>
-      <c r="E39" s="6">
-        <v>2.2000000000000002</v>
+      <c r="E39" s="15">
+        <v>4.2</v>
       </c>
       <c r="F39" s="7" t="s">
         <v>14</v>
@@ -1785,18 +1813,18 @@
       </c>
     </row>
     <row r="40" spans="1:10" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="B40" s="4">
-        <v>17</v>
-      </c>
-      <c r="C40" s="5">
-        <v>7.5</v>
+      <c r="A40" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="B40" s="13">
+        <v>10</v>
+      </c>
+      <c r="C40" s="14">
+        <v>8.8000000000000007</v>
       </c>
       <c r="D40" s="5"/>
-      <c r="E40" s="6">
-        <v>3.7</v>
+      <c r="E40" s="15">
+        <v>3.9</v>
       </c>
       <c r="F40" s="7" t="s">
         <v>15</v>
@@ -1819,20 +1847,20 @@
         <v>27</v>
       </c>
       <c r="B41" s="4">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C41" s="5">
-        <v>9.1</v>
+        <v>5.2</v>
       </c>
       <c r="D41" s="5"/>
       <c r="E41" s="6">
-        <v>3.2</v>
+        <v>2.6</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="G41" s="9">
-        <v>9.1999999999999993</v>
+        <v>11</v>
+      </c>
+      <c r="G41" s="7" t="s">
+        <v>19</v>
       </c>
       <c r="H41" s="8">
         <v>2007</v>
@@ -1849,20 +1877,20 @@
         <v>27</v>
       </c>
       <c r="B42" s="4">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C42" s="5">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="D42" s="5"/>
       <c r="E42" s="6">
-        <v>3</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="G42" s="9">
-        <v>11.1</v>
+        <v>14</v>
+      </c>
+      <c r="G42" s="7" t="s">
+        <v>20</v>
       </c>
       <c r="H42" s="8">
         <v>2007</v>
@@ -1879,20 +1907,20 @@
         <v>27</v>
       </c>
       <c r="B43" s="4">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C43" s="5">
-        <v>6.2</v>
+        <v>7.5</v>
       </c>
       <c r="D43" s="5"/>
       <c r="E43" s="6">
-        <v>2.2999999999999998</v>
+        <v>3.7</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G43" s="9">
-        <v>6.2</v>
+        <v>15</v>
+      </c>
+      <c r="G43" s="7" t="s">
+        <v>21</v>
       </c>
       <c r="H43" s="8">
         <v>2007</v>
@@ -1906,23 +1934,23 @@
     </row>
     <row r="44" spans="1:10" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B44" s="4">
-        <v>253</v>
+        <v>15</v>
       </c>
       <c r="C44" s="5">
-        <v>5.4</v>
+        <v>9.1</v>
       </c>
       <c r="D44" s="5"/>
       <c r="E44" s="6">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G44" s="7" t="s">
-        <v>19</v>
+        <v>16</v>
+      </c>
+      <c r="G44" s="9">
+        <v>9.1999999999999993</v>
       </c>
       <c r="H44" s="8">
         <v>2007</v>
@@ -1936,23 +1964,23 @@
     </row>
     <row r="45" spans="1:10" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B45" s="4">
-        <v>253</v>
+        <v>15</v>
       </c>
       <c r="C45" s="5">
-        <v>12.3</v>
+        <v>11</v>
       </c>
       <c r="D45" s="5"/>
       <c r="E45" s="6">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G45" s="7" t="s">
-        <v>20</v>
+        <v>17</v>
+      </c>
+      <c r="G45" s="9">
+        <v>11.1</v>
       </c>
       <c r="H45" s="8">
         <v>2007</v>
@@ -1966,23 +1994,23 @@
     </row>
     <row r="46" spans="1:10" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B46" s="4">
-        <v>253</v>
+        <v>15</v>
       </c>
       <c r="C46" s="5">
-        <v>7.9</v>
+        <v>6.2</v>
       </c>
       <c r="D46" s="5"/>
       <c r="E46" s="6">
-        <v>2.6</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G46" s="7" t="s">
-        <v>21</v>
+        <v>18</v>
+      </c>
+      <c r="G46" s="9">
+        <v>6.2</v>
       </c>
       <c r="H46" s="8">
         <v>2007</v>
@@ -1999,20 +2027,20 @@
         <v>28</v>
       </c>
       <c r="B47" s="4">
-        <v>200</v>
+        <v>253</v>
       </c>
       <c r="C47" s="5">
-        <v>9.6</v>
+        <v>5.4</v>
       </c>
       <c r="D47" s="5"/>
       <c r="E47" s="6">
-        <v>2.2999999999999998</v>
+        <v>3.4</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="G47" s="9">
-        <v>9.1999999999999993</v>
+        <v>11</v>
+      </c>
+      <c r="G47" s="7" t="s">
+        <v>19</v>
       </c>
       <c r="H47" s="8">
         <v>2007</v>
@@ -2029,20 +2057,20 @@
         <v>28</v>
       </c>
       <c r="B48" s="4">
-        <v>200</v>
+        <v>253</v>
       </c>
       <c r="C48" s="5">
-        <v>11.5</v>
+        <v>12.3</v>
       </c>
       <c r="D48" s="5"/>
       <c r="E48" s="6">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="G48" s="9">
-        <v>11.1</v>
+        <v>14</v>
+      </c>
+      <c r="G48" s="7" t="s">
+        <v>20</v>
       </c>
       <c r="H48" s="8">
         <v>2007</v>
@@ -2059,20 +2087,20 @@
         <v>28</v>
       </c>
       <c r="B49" s="4">
-        <v>200</v>
+        <v>253</v>
       </c>
       <c r="C49" s="5">
-        <v>6.3</v>
+        <v>7.9</v>
       </c>
       <c r="D49" s="5"/>
       <c r="E49" s="6">
-        <v>2.8</v>
+        <v>2.6</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G49" s="9">
-        <v>6.2</v>
+        <v>15</v>
+      </c>
+      <c r="G49" s="7" t="s">
+        <v>21</v>
       </c>
       <c r="H49" s="8">
         <v>2007</v>
@@ -2086,23 +2114,23 @@
     </row>
     <row r="50" spans="1:10" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B50" s="4">
-        <v>95</v>
+        <v>200</v>
       </c>
       <c r="C50" s="5">
-        <v>5.4</v>
+        <v>9.6</v>
       </c>
       <c r="D50" s="5"/>
       <c r="E50" s="6">
-        <v>2.7</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G50" s="7" t="s">
-        <v>19</v>
+        <v>16</v>
+      </c>
+      <c r="G50" s="9">
+        <v>9.1999999999999993</v>
       </c>
       <c r="H50" s="8">
         <v>2007</v>
@@ -2116,23 +2144,23 @@
     </row>
     <row r="51" spans="1:10" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B51" s="4">
-        <v>95</v>
+        <v>200</v>
       </c>
       <c r="C51" s="5">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="D51" s="5"/>
       <c r="E51" s="6">
-        <v>2.6</v>
+        <v>2.1</v>
       </c>
       <c r="F51" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G51" s="7" t="s">
-        <v>20</v>
+        <v>17</v>
+      </c>
+      <c r="G51" s="9">
+        <v>11.1</v>
       </c>
       <c r="H51" s="8">
         <v>2007</v>
@@ -2146,23 +2174,23 @@
     </row>
     <row r="52" spans="1:10" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B52" s="4">
-        <v>95</v>
+        <v>200</v>
       </c>
       <c r="C52" s="5">
-        <v>7.8</v>
+        <v>6.3</v>
       </c>
       <c r="D52" s="5"/>
       <c r="E52" s="6">
-        <v>2.2999999999999998</v>
+        <v>2.8</v>
       </c>
       <c r="F52" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G52" s="7" t="s">
-        <v>21</v>
+        <v>18</v>
+      </c>
+      <c r="G52" s="9">
+        <v>6.2</v>
       </c>
       <c r="H52" s="8">
         <v>2007</v>
@@ -2179,20 +2207,20 @@
         <v>29</v>
       </c>
       <c r="B53" s="4">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="C53" s="5">
-        <v>9.4</v>
+        <v>5.4</v>
       </c>
       <c r="D53" s="5"/>
       <c r="E53" s="6">
         <v>2.7</v>
       </c>
       <c r="F53" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="G53" s="9">
-        <v>9.1999999999999993</v>
+        <v>11</v>
+      </c>
+      <c r="G53" s="7" t="s">
+        <v>19</v>
       </c>
       <c r="H53" s="8">
         <v>2007</v>
@@ -2209,20 +2237,20 @@
         <v>29</v>
       </c>
       <c r="B54" s="4">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="C54" s="5">
-        <v>11.4</v>
+        <v>12</v>
       </c>
       <c r="D54" s="5"/>
       <c r="E54" s="6">
         <v>2.6</v>
       </c>
       <c r="F54" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="G54" s="9">
-        <v>11.1</v>
+        <v>14</v>
+      </c>
+      <c r="G54" s="7" t="s">
+        <v>20</v>
       </c>
       <c r="H54" s="8">
         <v>2007</v>
@@ -2239,20 +2267,20 @@
         <v>29</v>
       </c>
       <c r="B55" s="4">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="C55" s="5">
-        <v>6.3</v>
+        <v>7.8</v>
       </c>
       <c r="D55" s="5"/>
       <c r="E55" s="6">
-        <v>2.4</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="F55" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G55" s="9">
-        <v>6.2</v>
+        <v>15</v>
+      </c>
+      <c r="G55" s="7" t="s">
+        <v>21</v>
       </c>
       <c r="H55" s="8">
         <v>2007</v>
@@ -2266,23 +2294,23 @@
     </row>
     <row r="56" spans="1:10" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B56" s="4">
-        <v>593</v>
+        <v>103</v>
       </c>
       <c r="C56" s="5">
-        <v>5.8</v>
+        <v>9.4</v>
       </c>
       <c r="D56" s="5"/>
       <c r="E56" s="6">
-        <v>3.1</v>
+        <v>2.7</v>
       </c>
       <c r="F56" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G56" s="7" t="s">
-        <v>19</v>
+        <v>16</v>
+      </c>
+      <c r="G56" s="9">
+        <v>9.1999999999999993</v>
       </c>
       <c r="H56" s="8">
         <v>2007</v>
@@ -2296,23 +2324,23 @@
     </row>
     <row r="57" spans="1:10" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B57" s="4">
-        <v>593</v>
+        <v>103</v>
       </c>
       <c r="C57" s="5">
-        <v>11.3</v>
+        <v>11.4</v>
       </c>
       <c r="D57" s="5"/>
       <c r="E57" s="6">
-        <v>3.5</v>
+        <v>2.6</v>
       </c>
       <c r="F57" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G57" s="7" t="s">
-        <v>20</v>
+        <v>17</v>
+      </c>
+      <c r="G57" s="9">
+        <v>11.1</v>
       </c>
       <c r="H57" s="8">
         <v>2007</v>
@@ -2326,23 +2354,23 @@
     </row>
     <row r="58" spans="1:10" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B58" s="4">
-        <v>593</v>
+        <v>103</v>
       </c>
       <c r="C58" s="5">
-        <v>7.6</v>
+        <v>6.3</v>
       </c>
       <c r="D58" s="5"/>
       <c r="E58" s="6">
-        <v>2.8</v>
+        <v>2.4</v>
       </c>
       <c r="F58" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G58" s="7" t="s">
-        <v>21</v>
+        <v>18</v>
+      </c>
+      <c r="G58" s="9">
+        <v>6.2</v>
       </c>
       <c r="H58" s="8">
         <v>2007</v>
@@ -2359,20 +2387,20 @@
         <v>30</v>
       </c>
       <c r="B59" s="4">
-        <v>527</v>
+        <v>593</v>
       </c>
       <c r="C59" s="5">
-        <v>8.9</v>
+        <v>5.8</v>
       </c>
       <c r="D59" s="5"/>
       <c r="E59" s="6">
         <v>3.1</v>
       </c>
       <c r="F59" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="G59" s="9">
-        <v>9.1999999999999993</v>
+        <v>11</v>
+      </c>
+      <c r="G59" s="7" t="s">
+        <v>19</v>
       </c>
       <c r="H59" s="8">
         <v>2007</v>
@@ -2389,20 +2417,20 @@
         <v>30</v>
       </c>
       <c r="B60" s="4">
-        <v>527</v>
+        <v>593</v>
       </c>
       <c r="C60" s="5">
-        <v>10.9</v>
+        <v>11.3</v>
       </c>
       <c r="D60" s="5"/>
       <c r="E60" s="6">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="F60" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="G60" s="9">
-        <v>11.1</v>
+        <v>14</v>
+      </c>
+      <c r="G60" s="7" t="s">
+        <v>20</v>
       </c>
       <c r="H60" s="8">
         <v>2007</v>
@@ -2419,20 +2447,20 @@
         <v>30</v>
       </c>
       <c r="B61" s="4">
-        <v>527</v>
+        <v>593</v>
       </c>
       <c r="C61" s="5">
-        <v>6.3</v>
+        <v>7.6</v>
       </c>
       <c r="D61" s="5"/>
       <c r="E61" s="6">
-        <v>3.3</v>
+        <v>2.8</v>
       </c>
       <c r="F61" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G61" s="9">
-        <v>6.2</v>
+        <v>15</v>
+      </c>
+      <c r="G61" s="7" t="s">
+        <v>21</v>
       </c>
       <c r="H61" s="8">
         <v>2007</v>
@@ -2446,23 +2474,23 @@
     </row>
     <row r="62" spans="1:10" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B62" s="4">
-        <v>23</v>
+        <v>527</v>
       </c>
       <c r="C62" s="5">
-        <v>5.3</v>
+        <v>8.9</v>
       </c>
       <c r="D62" s="5"/>
       <c r="E62" s="6">
-        <v>6.1</v>
+        <v>3.1</v>
       </c>
       <c r="F62" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G62" s="7" t="s">
-        <v>19</v>
+        <v>16</v>
+      </c>
+      <c r="G62" s="9">
+        <v>9.1999999999999993</v>
       </c>
       <c r="H62" s="8">
         <v>2007</v>
@@ -2476,23 +2504,23 @@
     </row>
     <row r="63" spans="1:10" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B63" s="4">
-        <v>23</v>
+        <v>527</v>
       </c>
       <c r="C63" s="5">
-        <v>11.7</v>
+        <v>10.9</v>
       </c>
       <c r="D63" s="5"/>
       <c r="E63" s="6">
-        <v>6.3</v>
+        <v>3.1</v>
       </c>
       <c r="F63" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G63" s="7" t="s">
-        <v>20</v>
+        <v>17</v>
+      </c>
+      <c r="G63" s="9">
+        <v>11.1</v>
       </c>
       <c r="H63" s="8">
         <v>2007</v>
@@ -2506,23 +2534,23 @@
     </row>
     <row r="64" spans="1:10" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B64" s="4">
-        <v>23</v>
+        <v>527</v>
       </c>
       <c r="C64" s="5">
-        <v>7.4</v>
+        <v>6.3</v>
       </c>
       <c r="D64" s="5"/>
       <c r="E64" s="6">
-        <v>7.7</v>
+        <v>3.3</v>
       </c>
       <c r="F64" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G64" s="7" t="s">
-        <v>21</v>
+        <v>18</v>
+      </c>
+      <c r="G64" s="9">
+        <v>6.2</v>
       </c>
       <c r="H64" s="8">
         <v>2007</v>
@@ -2539,20 +2567,20 @@
         <v>31</v>
       </c>
       <c r="B65" s="4">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C65" s="5">
-        <v>8.1999999999999993</v>
+        <v>5.3</v>
       </c>
       <c r="D65" s="5"/>
       <c r="E65" s="6">
-        <v>7.4</v>
+        <v>6.1</v>
       </c>
       <c r="F65" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="G65" s="9">
-        <v>9.1999999999999993</v>
+        <v>11</v>
+      </c>
+      <c r="G65" s="7" t="s">
+        <v>19</v>
       </c>
       <c r="H65" s="8">
         <v>2007</v>
@@ -2569,20 +2597,20 @@
         <v>31</v>
       </c>
       <c r="B66" s="4">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C66" s="5">
-        <v>10.199999999999999</v>
+        <v>11.7</v>
       </c>
       <c r="D66" s="5"/>
       <c r="E66" s="6">
-        <v>6.5</v>
+        <v>6.3</v>
       </c>
       <c r="F66" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="G66" s="9">
-        <v>11.1</v>
+        <v>14</v>
+      </c>
+      <c r="G66" s="7" t="s">
+        <v>20</v>
       </c>
       <c r="H66" s="8">
         <v>2007</v>
@@ -2599,20 +2627,20 @@
         <v>31</v>
       </c>
       <c r="B67" s="4">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C67" s="5">
-        <v>5.7</v>
+        <v>7.4</v>
       </c>
       <c r="D67" s="5"/>
       <c r="E67" s="6">
-        <v>5.7</v>
+        <v>7.7</v>
       </c>
       <c r="F67" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G67" s="9">
-        <v>6.2</v>
+        <v>15</v>
+      </c>
+      <c r="G67" s="7" t="s">
+        <v>21</v>
       </c>
       <c r="H67" s="8">
         <v>2007</v>
@@ -2626,23 +2654,23 @@
     </row>
     <row r="68" spans="1:10" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B68" s="4">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="C68" s="5">
-        <v>5.6</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="D68" s="5"/>
       <c r="E68" s="6">
-        <v>6.2</v>
+        <v>7.4</v>
       </c>
       <c r="F68" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G68" s="7" t="s">
-        <v>19</v>
+        <v>16</v>
+      </c>
+      <c r="G68" s="9">
+        <v>9.1999999999999993</v>
       </c>
       <c r="H68" s="8">
         <v>2007</v>
@@ -2656,23 +2684,23 @@
     </row>
     <row r="69" spans="1:10" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B69" s="4">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="C69" s="5">
-        <v>12.2</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="D69" s="5"/>
       <c r="E69" s="6">
-        <v>6.1</v>
+        <v>6.5</v>
       </c>
       <c r="F69" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G69" s="7" t="s">
-        <v>20</v>
+        <v>17</v>
+      </c>
+      <c r="G69" s="9">
+        <v>11.1</v>
       </c>
       <c r="H69" s="8">
         <v>2007</v>
@@ -2686,23 +2714,23 @@
     </row>
     <row r="70" spans="1:10" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B70" s="4">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="C70" s="5">
-        <v>8.1999999999999993</v>
+        <v>5.7</v>
       </c>
       <c r="D70" s="5"/>
       <c r="E70" s="6">
-        <v>5.5</v>
+        <v>5.7</v>
       </c>
       <c r="F70" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G70" s="7" t="s">
-        <v>21</v>
+        <v>18</v>
+      </c>
+      <c r="G70" s="9">
+        <v>6.2</v>
       </c>
       <c r="H70" s="8">
         <v>2007</v>
@@ -2719,20 +2747,20 @@
         <v>32</v>
       </c>
       <c r="B71" s="4">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C71" s="5">
-        <v>9.4</v>
+        <v>5.6</v>
       </c>
       <c r="D71" s="5"/>
       <c r="E71" s="6">
-        <v>3.6</v>
+        <v>6.2</v>
       </c>
       <c r="F71" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="G71" s="9">
-        <v>9.1999999999999993</v>
+        <v>11</v>
+      </c>
+      <c r="G71" s="7" t="s">
+        <v>19</v>
       </c>
       <c r="H71" s="8">
         <v>2007</v>
@@ -2749,20 +2777,20 @@
         <v>32</v>
       </c>
       <c r="B72" s="4">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C72" s="5">
-        <v>11</v>
+        <v>12.2</v>
       </c>
       <c r="D72" s="5"/>
       <c r="E72" s="6">
-        <v>4.0999999999999996</v>
+        <v>6.1</v>
       </c>
       <c r="F72" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="G72" s="9">
-        <v>11.1</v>
+        <v>14</v>
+      </c>
+      <c r="G72" s="7" t="s">
+        <v>20</v>
       </c>
       <c r="H72" s="8">
         <v>2007</v>
@@ -2779,20 +2807,20 @@
         <v>32</v>
       </c>
       <c r="B73" s="4">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C73" s="5">
-        <v>6.1</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="D73" s="5"/>
       <c r="E73" s="6">
-        <v>3.6</v>
+        <v>5.5</v>
       </c>
       <c r="F73" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G73" s="9">
-        <v>6.2</v>
+        <v>15</v>
+      </c>
+      <c r="G73" s="7" t="s">
+        <v>21</v>
       </c>
       <c r="H73" s="8">
         <v>2007</v>
@@ -2806,21 +2834,23 @@
     </row>
     <row r="74" spans="1:10" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B74" s="4">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="C74" s="5">
-        <v>5</v>
+        <v>9.4</v>
       </c>
       <c r="D74" s="5"/>
-      <c r="E74" s="11"/>
+      <c r="E74" s="6">
+        <v>3.6</v>
+      </c>
       <c r="F74" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G74" s="7" t="s">
-        <v>19</v>
+        <v>16</v>
+      </c>
+      <c r="G74" s="9">
+        <v>9.1999999999999993</v>
       </c>
       <c r="H74" s="8">
         <v>2007</v>
@@ -2834,21 +2864,23 @@
     </row>
     <row r="75" spans="1:10" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B75" s="4">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="C75" s="5">
         <v>11</v>
       </c>
       <c r="D75" s="5"/>
-      <c r="E75" s="11"/>
+      <c r="E75" s="6">
+        <v>4.0999999999999996</v>
+      </c>
       <c r="F75" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G75" s="7" t="s">
-        <v>20</v>
+        <v>17</v>
+      </c>
+      <c r="G75" s="9">
+        <v>11.1</v>
       </c>
       <c r="H75" s="8">
         <v>2007</v>
@@ -2862,21 +2894,23 @@
     </row>
     <row r="76" spans="1:10" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B76" s="4">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="C76" s="5">
-        <v>7.5</v>
+        <v>6.1</v>
       </c>
       <c r="D76" s="5"/>
-      <c r="E76" s="11"/>
+      <c r="E76" s="6">
+        <v>3.6</v>
+      </c>
       <c r="F76" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G76" s="7" t="s">
-        <v>21</v>
+        <v>18</v>
+      </c>
+      <c r="G76" s="9">
+        <v>6.2</v>
       </c>
       <c r="H76" s="8">
         <v>2007</v>
@@ -2890,18 +2924,16 @@
     </row>
     <row r="77" spans="1:10" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B77" s="4">
-        <v>36</v>
+        <v>5</v>
       </c>
       <c r="C77" s="5">
-        <v>5.3</v>
+        <v>5</v>
       </c>
       <c r="D77" s="5"/>
-      <c r="E77" s="6">
-        <v>2.7</v>
-      </c>
+      <c r="E77" s="11"/>
       <c r="F77" s="7" t="s">
         <v>11</v>
       </c>
@@ -2920,18 +2952,16 @@
     </row>
     <row r="78" spans="1:10" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B78" s="4">
-        <v>36</v>
+        <v>5</v>
       </c>
       <c r="C78" s="5">
-        <v>11.7</v>
+        <v>11</v>
       </c>
       <c r="D78" s="5"/>
-      <c r="E78" s="6">
-        <v>2.5</v>
-      </c>
+      <c r="E78" s="11"/>
       <c r="F78" s="7" t="s">
         <v>14</v>
       </c>
@@ -2950,18 +2980,16 @@
     </row>
     <row r="79" spans="1:10" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B79" s="4">
-        <v>36</v>
+        <v>5</v>
       </c>
       <c r="C79" s="5">
-        <v>7.6</v>
+        <v>7.5</v>
       </c>
       <c r="D79" s="5"/>
-      <c r="E79" s="6">
-        <v>2.2999999999999998</v>
-      </c>
+      <c r="E79" s="11"/>
       <c r="F79" s="7" t="s">
         <v>15</v>
       </c>
@@ -2979,168 +3007,174 @@
       </c>
     </row>
     <row r="80" spans="1:10" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="B80" s="4">
-        <v>25</v>
-      </c>
-      <c r="C80" s="5">
-        <v>9</v>
+      <c r="A80" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="B80" s="13">
+        <v>15</v>
+      </c>
+      <c r="C80" s="14">
+        <v>6.2</v>
       </c>
       <c r="D80" s="5"/>
-      <c r="E80" s="6">
-        <v>4.8</v>
+      <c r="E80" s="14">
+        <v>4.3</v>
       </c>
       <c r="F80" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G80" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H80" s="8">
+        <v>2007</v>
+      </c>
+      <c r="I80" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="J80" s="8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="B81" s="13">
+        <v>15</v>
+      </c>
+      <c r="C81" s="14">
+        <v>17.100000000000001</v>
+      </c>
+      <c r="D81" s="5"/>
+      <c r="E81" s="15">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="F81" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G81" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H81" s="8">
+        <v>2007</v>
+      </c>
+      <c r="I81" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="J81" s="8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="B82" s="13">
+        <v>15</v>
+      </c>
+      <c r="C82" s="14">
+        <v>10</v>
+      </c>
+      <c r="D82" s="5"/>
+      <c r="E82" s="15">
+        <v>2.9</v>
+      </c>
+      <c r="F82" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G82" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H82" s="8">
+        <v>2007</v>
+      </c>
+      <c r="I82" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="J82" s="8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="B83" s="13">
         <v>16</v>
       </c>
-      <c r="G80" s="9">
+      <c r="C83" s="14">
+        <v>12.1</v>
+      </c>
+      <c r="D83" s="5"/>
+      <c r="E83" s="14">
+        <v>5.2</v>
+      </c>
+      <c r="F83" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G83" s="9">
         <v>9.1999999999999993</v>
       </c>
-      <c r="H80" s="8">
-        <v>2007</v>
-      </c>
-      <c r="I80" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="J80" s="8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="81" spans="1:10" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="B81" s="4">
-        <v>25</v>
-      </c>
-      <c r="C81" s="5">
-        <v>11</v>
-      </c>
-      <c r="D81" s="5"/>
-      <c r="E81" s="6">
-        <v>4.7</v>
-      </c>
-      <c r="F81" s="7" t="s">
+      <c r="H83" s="8">
+        <v>2007</v>
+      </c>
+      <c r="I83" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="J83" s="8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="B84" s="13">
+        <v>16</v>
+      </c>
+      <c r="C84" s="14">
+        <v>15.4</v>
+      </c>
+      <c r="D84" s="5"/>
+      <c r="E84" s="14">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="F84" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="G81" s="9">
+      <c r="G84" s="9">
         <v>11.1</v>
       </c>
-      <c r="H81" s="8">
-        <v>2007</v>
-      </c>
-      <c r="I81" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="J81" s="8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="82" spans="1:10" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="B82" s="4">
-        <v>25</v>
-      </c>
-      <c r="C82" s="5">
-        <v>6</v>
-      </c>
-      <c r="D82" s="5"/>
-      <c r="E82" s="6">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="F82" s="7" t="s">
+      <c r="H84" s="8">
+        <v>2007</v>
+      </c>
+      <c r="I84" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="J84" s="8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="B85" s="13">
+        <v>16</v>
+      </c>
+      <c r="C85" s="14">
+        <v>7.3</v>
+      </c>
+      <c r="D85" s="5"/>
+      <c r="E85" s="14">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="F85" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="G82" s="9">
+      <c r="G85" s="9">
         <v>6.2</v>
-      </c>
-      <c r="H82" s="8">
-        <v>2007</v>
-      </c>
-      <c r="I82" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="J82" s="8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="83" spans="1:10" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="B83" s="4">
-        <v>6</v>
-      </c>
-      <c r="C83" s="5">
-        <v>5.8</v>
-      </c>
-      <c r="D83" s="5"/>
-      <c r="E83" s="11"/>
-      <c r="F83" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G83" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H83" s="8">
-        <v>2007</v>
-      </c>
-      <c r="I83" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="J83" s="8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="84" spans="1:10" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="B84" s="4">
-        <v>6</v>
-      </c>
-      <c r="C84" s="5">
-        <v>11.4</v>
-      </c>
-      <c r="D84" s="5"/>
-      <c r="E84" s="11"/>
-      <c r="F84" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G84" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="H84" s="8">
-        <v>2007</v>
-      </c>
-      <c r="I84" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="J84" s="8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="85" spans="1:10" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="B85" s="4">
-        <v>6</v>
-      </c>
-      <c r="C85" s="5">
-        <v>7.5</v>
-      </c>
-      <c r="D85" s="5"/>
-      <c r="E85" s="11"/>
-      <c r="F85" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G85" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="H85" s="8">
         <v>2007</v>
@@ -3154,23 +3188,23 @@
     </row>
     <row r="86" spans="1:10" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B86" s="4">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="C86" s="5">
-        <v>9</v>
+        <v>5.3</v>
       </c>
       <c r="D86" s="5"/>
       <c r="E86" s="6">
-        <v>3.1</v>
+        <v>2.7</v>
       </c>
       <c r="F86" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="G86" s="9">
-        <v>9.1999999999999993</v>
+        <v>11</v>
+      </c>
+      <c r="G86" s="7" t="s">
+        <v>19</v>
       </c>
       <c r="H86" s="8">
         <v>2007</v>
@@ -3184,23 +3218,23 @@
     </row>
     <row r="87" spans="1:10" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B87" s="4">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="C87" s="5">
-        <v>11</v>
+        <v>11.7</v>
       </c>
       <c r="D87" s="5"/>
       <c r="E87" s="6">
-        <v>3.9</v>
+        <v>2.5</v>
       </c>
       <c r="F87" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="G87" s="9">
-        <v>11.1</v>
+        <v>14</v>
+      </c>
+      <c r="G87" s="7" t="s">
+        <v>20</v>
       </c>
       <c r="H87" s="8">
         <v>2007</v>
@@ -3214,23 +3248,23 @@
     </row>
     <row r="88" spans="1:10" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B88" s="4">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="C88" s="5">
-        <v>6.3</v>
+        <v>7.6</v>
       </c>
       <c r="D88" s="5"/>
       <c r="E88" s="6">
-        <v>3.4</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="F88" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G88" s="9">
-        <v>6.2</v>
+        <v>15</v>
+      </c>
+      <c r="G88" s="7" t="s">
+        <v>21</v>
       </c>
       <c r="H88" s="8">
         <v>2007</v>
@@ -3244,23 +3278,23 @@
     </row>
     <row r="89" spans="1:10" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="10" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B89" s="4">
-        <v>239</v>
+        <v>25</v>
       </c>
       <c r="C89" s="5">
-        <v>5.5</v>
+        <v>9</v>
       </c>
       <c r="D89" s="5"/>
       <c r="E89" s="6">
-        <v>3.4</v>
+        <v>4.8</v>
       </c>
       <c r="F89" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G89" s="7" t="s">
-        <v>19</v>
+        <v>16</v>
+      </c>
+      <c r="G89" s="9">
+        <v>9.1999999999999993</v>
       </c>
       <c r="H89" s="8">
         <v>2007</v>
@@ -3274,23 +3308,23 @@
     </row>
     <row r="90" spans="1:10" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="10" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B90" s="4">
-        <v>239</v>
+        <v>25</v>
       </c>
       <c r="C90" s="5">
-        <v>11.8</v>
+        <v>11</v>
       </c>
       <c r="D90" s="5"/>
       <c r="E90" s="6">
-        <v>3.7</v>
+        <v>4.7</v>
       </c>
       <c r="F90" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G90" s="7" t="s">
-        <v>20</v>
+        <v>17</v>
+      </c>
+      <c r="G90" s="9">
+        <v>11.1</v>
       </c>
       <c r="H90" s="8">
         <v>2007</v>
@@ -3304,23 +3338,23 @@
     </row>
     <row r="91" spans="1:10" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="10" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B91" s="4">
-        <v>239</v>
+        <v>25</v>
       </c>
       <c r="C91" s="5">
-        <v>7.7</v>
+        <v>6</v>
       </c>
       <c r="D91" s="5"/>
       <c r="E91" s="6">
-        <v>3.6</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="F91" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G91" s="7" t="s">
-        <v>21</v>
+        <v>18</v>
+      </c>
+      <c r="G91" s="9">
+        <v>6.2</v>
       </c>
       <c r="H91" s="8">
         <v>2007</v>
@@ -3334,23 +3368,21 @@
     </row>
     <row r="92" spans="1:10" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B92" s="4">
-        <v>177</v>
+        <v>6</v>
       </c>
       <c r="C92" s="5">
-        <v>9.1999999999999993</v>
+        <v>5.8</v>
       </c>
       <c r="D92" s="5"/>
-      <c r="E92" s="6">
-        <v>4.3</v>
-      </c>
+      <c r="E92" s="11"/>
       <c r="F92" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="G92" s="9">
-        <v>9.1999999999999993</v>
+        <v>11</v>
+      </c>
+      <c r="G92" s="7" t="s">
+        <v>19</v>
       </c>
       <c r="H92" s="8">
         <v>2007</v>
@@ -3364,23 +3396,21 @@
     </row>
     <row r="93" spans="1:10" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B93" s="4">
-        <v>177</v>
+        <v>6</v>
       </c>
       <c r="C93" s="5">
-        <v>11.1</v>
+        <v>11.4</v>
       </c>
       <c r="D93" s="5"/>
-      <c r="E93" s="6">
-        <v>4</v>
-      </c>
+      <c r="E93" s="11"/>
       <c r="F93" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="G93" s="9">
-        <v>11.1</v>
+        <v>14</v>
+      </c>
+      <c r="G93" s="7" t="s">
+        <v>20</v>
       </c>
       <c r="H93" s="8">
         <v>2007</v>
@@ -3394,23 +3424,21 @@
     </row>
     <row r="94" spans="1:10" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B94" s="4">
-        <v>177</v>
+        <v>6</v>
       </c>
       <c r="C94" s="5">
-        <v>6.3</v>
+        <v>7.5</v>
       </c>
       <c r="D94" s="5"/>
-      <c r="E94" s="6">
-        <v>3.2</v>
-      </c>
+      <c r="E94" s="11"/>
       <c r="F94" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G94" s="9">
-        <v>6.2</v>
+        <v>15</v>
+      </c>
+      <c r="G94" s="7" t="s">
+        <v>21</v>
       </c>
       <c r="H94" s="8">
         <v>2007</v>
@@ -3424,23 +3452,23 @@
     </row>
     <row r="95" spans="1:10" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="10" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B95" s="4">
-        <v>72</v>
+        <v>20</v>
       </c>
       <c r="C95" s="5">
-        <v>5.5</v>
+        <v>9</v>
       </c>
       <c r="D95" s="5"/>
       <c r="E95" s="6">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="F95" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G95" s="7" t="s">
-        <v>19</v>
+        <v>16</v>
+      </c>
+      <c r="G95" s="9">
+        <v>9.1999999999999993</v>
       </c>
       <c r="H95" s="8">
         <v>2007</v>
@@ -3454,23 +3482,23 @@
     </row>
     <row r="96" spans="1:10" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="10" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B96" s="4">
-        <v>72</v>
+        <v>20</v>
       </c>
       <c r="C96" s="5">
-        <v>11.7</v>
+        <v>11</v>
       </c>
       <c r="D96" s="5"/>
       <c r="E96" s="6">
-        <v>2.8</v>
+        <v>3.9</v>
       </c>
       <c r="F96" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G96" s="7" t="s">
-        <v>20</v>
+        <v>17</v>
+      </c>
+      <c r="G96" s="9">
+        <v>11.1</v>
       </c>
       <c r="H96" s="8">
         <v>2007</v>
@@ -3484,23 +3512,23 @@
     </row>
     <row r="97" spans="1:10" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="10" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B97" s="4">
-        <v>72</v>
+        <v>20</v>
       </c>
       <c r="C97" s="5">
-        <v>7.5</v>
+        <v>6.3</v>
       </c>
       <c r="D97" s="5"/>
       <c r="E97" s="6">
-        <v>2.2999999999999998</v>
+        <v>3.4</v>
       </c>
       <c r="F97" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G97" s="7" t="s">
-        <v>21</v>
+        <v>18</v>
+      </c>
+      <c r="G97" s="9">
+        <v>6.2</v>
       </c>
       <c r="H97" s="8">
         <v>2007</v>
@@ -3514,23 +3542,23 @@
     </row>
     <row r="98" spans="1:10" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B98" s="4">
-        <v>81</v>
+        <v>239</v>
       </c>
       <c r="C98" s="5">
-        <v>9</v>
+        <v>5.5</v>
       </c>
       <c r="D98" s="5"/>
       <c r="E98" s="6">
-        <v>2.6</v>
+        <v>3.4</v>
       </c>
       <c r="F98" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="G98" s="9">
-        <v>9.1999999999999993</v>
+        <v>11</v>
+      </c>
+      <c r="G98" s="7" t="s">
+        <v>19</v>
       </c>
       <c r="H98" s="8">
         <v>2007</v>
@@ -3544,23 +3572,23 @@
     </row>
     <row r="99" spans="1:10" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B99" s="4">
-        <v>81</v>
+        <v>239</v>
       </c>
       <c r="C99" s="5">
-        <v>11</v>
+        <v>11.8</v>
       </c>
       <c r="D99" s="5"/>
       <c r="E99" s="6">
-        <v>3.2</v>
+        <v>3.7</v>
       </c>
       <c r="F99" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="G99" s="9">
-        <v>11.1</v>
+        <v>14</v>
+      </c>
+      <c r="G99" s="7" t="s">
+        <v>20</v>
       </c>
       <c r="H99" s="8">
         <v>2007</v>
@@ -3574,23 +3602,23 @@
     </row>
     <row r="100" spans="1:10" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B100" s="4">
-        <v>81</v>
+        <v>239</v>
       </c>
       <c r="C100" s="5">
-        <v>6.2</v>
+        <v>7.7</v>
       </c>
       <c r="D100" s="5"/>
       <c r="E100" s="6">
-        <v>2.7</v>
+        <v>3.6</v>
       </c>
       <c r="F100" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G100" s="9">
-        <v>6.2</v>
+        <v>15</v>
+      </c>
+      <c r="G100" s="7" t="s">
+        <v>21</v>
       </c>
       <c r="H100" s="8">
         <v>2007</v>
@@ -3604,23 +3632,23 @@
     </row>
     <row r="101" spans="1:10" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="10" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B101" s="4">
-        <v>63</v>
+        <v>177</v>
       </c>
       <c r="C101" s="5">
-        <v>5.5</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="D101" s="5"/>
       <c r="E101" s="6">
-        <v>5.2</v>
+        <v>4.3</v>
       </c>
       <c r="F101" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G101" s="7" t="s">
-        <v>19</v>
+        <v>16</v>
+      </c>
+      <c r="G101" s="9">
+        <v>9.1999999999999993</v>
       </c>
       <c r="H101" s="8">
         <v>2007</v>
@@ -3634,23 +3662,23 @@
     </row>
     <row r="102" spans="1:10" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="10" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B102" s="4">
-        <v>63</v>
+        <v>177</v>
       </c>
       <c r="C102" s="5">
-        <v>11.8</v>
+        <v>11.1</v>
       </c>
       <c r="D102" s="5"/>
       <c r="E102" s="6">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="F102" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G102" s="7" t="s">
-        <v>20</v>
+        <v>17</v>
+      </c>
+      <c r="G102" s="9">
+        <v>11.1</v>
       </c>
       <c r="H102" s="8">
         <v>2007</v>
@@ -3664,23 +3692,23 @@
     </row>
     <row r="103" spans="1:10" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="10" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B103" s="4">
-        <v>63</v>
+        <v>177</v>
       </c>
       <c r="C103" s="5">
-        <v>7.5</v>
+        <v>6.3</v>
       </c>
       <c r="D103" s="5"/>
       <c r="E103" s="6">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="F103" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G103" s="7" t="s">
-        <v>21</v>
+        <v>18</v>
+      </c>
+      <c r="G103" s="9">
+        <v>6.2</v>
       </c>
       <c r="H103" s="8">
         <v>2007</v>
@@ -3694,23 +3722,23 @@
     </row>
     <row r="104" spans="1:10" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B104" s="4">
-        <v>44</v>
+        <v>72</v>
       </c>
       <c r="C104" s="5">
-        <v>9.1</v>
+        <v>5.5</v>
       </c>
       <c r="D104" s="5"/>
       <c r="E104" s="6">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="F104" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="G104" s="9">
-        <v>9.1999999999999993</v>
+        <v>11</v>
+      </c>
+      <c r="G104" s="7" t="s">
+        <v>19</v>
       </c>
       <c r="H104" s="8">
         <v>2007</v>
@@ -3724,23 +3752,23 @@
     </row>
     <row r="105" spans="1:10" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B105" s="4">
-        <v>44</v>
+        <v>72</v>
       </c>
       <c r="C105" s="5">
-        <v>11.2</v>
+        <v>11.7</v>
       </c>
       <c r="D105" s="5"/>
       <c r="E105" s="6">
-        <v>4.5</v>
+        <v>2.8</v>
       </c>
       <c r="F105" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="G105" s="9">
-        <v>11.1</v>
+        <v>14</v>
+      </c>
+      <c r="G105" s="7" t="s">
+        <v>20</v>
       </c>
       <c r="H105" s="8">
         <v>2007</v>
@@ -3754,23 +3782,23 @@
     </row>
     <row r="106" spans="1:10" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B106" s="4">
-        <v>44</v>
+        <v>72</v>
       </c>
       <c r="C106" s="5">
-        <v>6.3</v>
+        <v>7.5</v>
       </c>
       <c r="D106" s="5"/>
       <c r="E106" s="6">
-        <v>5.0999999999999996</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="F106" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G106" s="9">
-        <v>6.2</v>
+        <v>15</v>
+      </c>
+      <c r="G106" s="7" t="s">
+        <v>21</v>
       </c>
       <c r="H106" s="8">
         <v>2007</v>
@@ -3784,23 +3812,23 @@
     </row>
     <row r="107" spans="1:10" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="10" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B107" s="4">
-        <v>186</v>
+        <v>81</v>
       </c>
       <c r="C107" s="5">
-        <v>5.4</v>
+        <v>9</v>
       </c>
       <c r="D107" s="5"/>
       <c r="E107" s="6">
-        <v>3.5</v>
+        <v>2.6</v>
       </c>
       <c r="F107" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G107" s="7" t="s">
-        <v>19</v>
+        <v>16</v>
+      </c>
+      <c r="G107" s="9">
+        <v>9.1999999999999993</v>
       </c>
       <c r="H107" s="8">
         <v>2007</v>
@@ -3814,23 +3842,23 @@
     </row>
     <row r="108" spans="1:10" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="10" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B108" s="4">
-        <v>186</v>
+        <v>81</v>
       </c>
       <c r="C108" s="5">
-        <v>12.4</v>
+        <v>11</v>
       </c>
       <c r="D108" s="5"/>
       <c r="E108" s="6">
-        <v>2.7</v>
+        <v>3.2</v>
       </c>
       <c r="F108" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G108" s="7" t="s">
-        <v>20</v>
+        <v>17</v>
+      </c>
+      <c r="G108" s="9">
+        <v>11.1</v>
       </c>
       <c r="H108" s="8">
         <v>2007</v>
@@ -3844,23 +3872,23 @@
     </row>
     <row r="109" spans="1:10" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="10" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B109" s="4">
-        <v>186</v>
+        <v>81</v>
       </c>
       <c r="C109" s="5">
-        <v>8</v>
+        <v>6.2</v>
       </c>
       <c r="D109" s="5"/>
       <c r="E109" s="6">
-        <v>2.9</v>
+        <v>2.7</v>
       </c>
       <c r="F109" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G109" s="7" t="s">
-        <v>21</v>
+        <v>18</v>
+      </c>
+      <c r="G109" s="9">
+        <v>6.2</v>
       </c>
       <c r="H109" s="8">
         <v>2007</v>
@@ -3874,23 +3902,23 @@
     </row>
     <row r="110" spans="1:10" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B110" s="4">
-        <v>140</v>
+        <v>63</v>
       </c>
       <c r="C110" s="5">
-        <v>9.8000000000000007</v>
+        <v>5.5</v>
       </c>
       <c r="D110" s="5"/>
       <c r="E110" s="6">
-        <v>2.5</v>
+        <v>5.2</v>
       </c>
       <c r="F110" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="G110" s="9">
-        <v>9.1999999999999993</v>
+        <v>11</v>
+      </c>
+      <c r="G110" s="7" t="s">
+        <v>19</v>
       </c>
       <c r="H110" s="8">
         <v>2007</v>
@@ -3904,23 +3932,23 @@
     </row>
     <row r="111" spans="1:10" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B111" s="4">
-        <v>140</v>
+        <v>63</v>
       </c>
       <c r="C111" s="5">
-        <v>12</v>
+        <v>11.8</v>
       </c>
       <c r="D111" s="5"/>
       <c r="E111" s="6">
-        <v>2.4</v>
+        <v>4.2</v>
       </c>
       <c r="F111" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="G111" s="9">
-        <v>11.1</v>
+        <v>14</v>
+      </c>
+      <c r="G111" s="7" t="s">
+        <v>20</v>
       </c>
       <c r="H111" s="8">
         <v>2007</v>
@@ -3934,23 +3962,23 @@
     </row>
     <row r="112" spans="1:10" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B112" s="4">
-        <v>140</v>
+        <v>63</v>
       </c>
       <c r="C112" s="5">
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="D112" s="5"/>
       <c r="E112" s="6">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="F112" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G112" s="9">
-        <v>6.2</v>
+        <v>15</v>
+      </c>
+      <c r="G112" s="7" t="s">
+        <v>21</v>
       </c>
       <c r="H112" s="8">
         <v>2007</v>
@@ -3964,23 +3992,23 @@
     </row>
     <row r="113" spans="1:10" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="10" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B113" s="4">
-        <v>261</v>
+        <v>44</v>
       </c>
       <c r="C113" s="5">
-        <v>5.4</v>
+        <v>9.1</v>
       </c>
       <c r="D113" s="5"/>
       <c r="E113" s="6">
-        <v>2.4</v>
+        <v>3.5</v>
       </c>
       <c r="F113" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G113" s="7" t="s">
-        <v>19</v>
+        <v>16</v>
+      </c>
+      <c r="G113" s="9">
+        <v>9.1999999999999993</v>
       </c>
       <c r="H113" s="8">
         <v>2007</v>
@@ -3994,23 +4022,23 @@
     </row>
     <row r="114" spans="1:10" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="10" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B114" s="4">
-        <v>261</v>
+        <v>44</v>
       </c>
       <c r="C114" s="5">
-        <v>12.3</v>
+        <v>11.2</v>
       </c>
       <c r="D114" s="5"/>
       <c r="E114" s="6">
-        <v>1.8</v>
+        <v>4.5</v>
       </c>
       <c r="F114" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G114" s="7" t="s">
-        <v>20</v>
+        <v>17</v>
+      </c>
+      <c r="G114" s="9">
+        <v>11.1</v>
       </c>
       <c r="H114" s="8">
         <v>2007</v>
@@ -4024,23 +4052,23 @@
     </row>
     <row r="115" spans="1:10" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="10" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B115" s="4">
-        <v>261</v>
+        <v>44</v>
       </c>
       <c r="C115" s="5">
-        <v>7.9</v>
+        <v>6.3</v>
       </c>
       <c r="D115" s="5"/>
       <c r="E115" s="6">
-        <v>2</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="F115" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G115" s="7" t="s">
-        <v>21</v>
+        <v>18</v>
+      </c>
+      <c r="G115" s="9">
+        <v>6.2</v>
       </c>
       <c r="H115" s="8">
         <v>2007</v>
@@ -4054,23 +4082,23 @@
     </row>
     <row r="116" spans="1:10" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B116" s="4">
-        <v>246</v>
+        <v>186</v>
       </c>
       <c r="C116" s="5">
-        <v>9.6</v>
+        <v>5.4</v>
       </c>
       <c r="D116" s="5"/>
       <c r="E116" s="6">
-        <v>2</v>
+        <v>3.5</v>
       </c>
       <c r="F116" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="G116" s="9">
-        <v>9.1999999999999993</v>
+        <v>11</v>
+      </c>
+      <c r="G116" s="7" t="s">
+        <v>19</v>
       </c>
       <c r="H116" s="8">
         <v>2007</v>
@@ -4084,23 +4112,23 @@
     </row>
     <row r="117" spans="1:10" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B117" s="4">
-        <v>246</v>
+        <v>186</v>
       </c>
       <c r="C117" s="5">
-        <v>11.8</v>
+        <v>12.4</v>
       </c>
       <c r="D117" s="5"/>
       <c r="E117" s="6">
-        <v>1.7</v>
+        <v>2.7</v>
       </c>
       <c r="F117" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="G117" s="9">
-        <v>11.1</v>
+        <v>14</v>
+      </c>
+      <c r="G117" s="7" t="s">
+        <v>20</v>
       </c>
       <c r="H117" s="8">
         <v>2007</v>
@@ -4114,23 +4142,23 @@
     </row>
     <row r="118" spans="1:10" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B118" s="4">
-        <v>246</v>
+        <v>186</v>
       </c>
       <c r="C118" s="5">
-        <v>6.4</v>
+        <v>8</v>
       </c>
       <c r="D118" s="5"/>
       <c r="E118" s="6">
-        <v>2.2000000000000002</v>
+        <v>2.9</v>
       </c>
       <c r="F118" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G118" s="9">
-        <v>6.2</v>
+        <v>15</v>
+      </c>
+      <c r="G118" s="7" t="s">
+        <v>21</v>
       </c>
       <c r="H118" s="8">
         <v>2007</v>
@@ -4144,23 +4172,23 @@
     </row>
     <row r="119" spans="1:10" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="10" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B119" s="4">
-        <v>66</v>
+        <v>140</v>
       </c>
       <c r="C119" s="5">
-        <v>5.7</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="D119" s="5"/>
       <c r="E119" s="6">
-        <v>3.6</v>
+        <v>2.5</v>
       </c>
       <c r="F119" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G119" s="7" t="s">
-        <v>19</v>
+        <v>16</v>
+      </c>
+      <c r="G119" s="9">
+        <v>9.1999999999999993</v>
       </c>
       <c r="H119" s="8">
         <v>2007</v>
@@ -4174,23 +4202,23 @@
     </row>
     <row r="120" spans="1:10" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="10" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B120" s="4">
-        <v>66</v>
+        <v>140</v>
       </c>
       <c r="C120" s="5">
-        <v>12.3</v>
+        <v>12</v>
       </c>
       <c r="D120" s="5"/>
       <c r="E120" s="6">
-        <v>4.4000000000000004</v>
+        <v>2.4</v>
       </c>
       <c r="F120" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G120" s="7" t="s">
-        <v>20</v>
+        <v>17</v>
+      </c>
+      <c r="G120" s="9">
+        <v>11.1</v>
       </c>
       <c r="H120" s="8">
         <v>2007</v>
@@ -4204,23 +4232,23 @@
     </row>
     <row r="121" spans="1:10" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="10" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B121" s="4">
-        <v>66</v>
+        <v>140</v>
       </c>
       <c r="C121" s="5">
-        <v>7.7</v>
+        <v>6.5</v>
       </c>
       <c r="D121" s="5"/>
       <c r="E121" s="6">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="F121" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G121" s="7" t="s">
-        <v>21</v>
+        <v>18</v>
+      </c>
+      <c r="G121" s="9">
+        <v>6.2</v>
       </c>
       <c r="H121" s="8">
         <v>2007</v>
@@ -4234,23 +4262,23 @@
     </row>
     <row r="122" spans="1:10" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B122" s="4">
-        <v>83</v>
+        <v>261</v>
       </c>
       <c r="C122" s="5">
-        <v>8.9</v>
+        <v>5.4</v>
       </c>
       <c r="D122" s="5"/>
       <c r="E122" s="6">
-        <v>4.9000000000000004</v>
+        <v>2.4</v>
       </c>
       <c r="F122" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="G122" s="9">
-        <v>9.1999999999999993</v>
+        <v>11</v>
+      </c>
+      <c r="G122" s="7" t="s">
+        <v>19</v>
       </c>
       <c r="H122" s="8">
         <v>2007</v>
@@ -4264,23 +4292,23 @@
     </row>
     <row r="123" spans="1:10" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B123" s="4">
-        <v>83</v>
+        <v>261</v>
       </c>
       <c r="C123" s="5">
-        <v>11.2</v>
+        <v>12.3</v>
       </c>
       <c r="D123" s="5"/>
       <c r="E123" s="6">
-        <v>5.3</v>
+        <v>1.8</v>
       </c>
       <c r="F123" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="G123" s="9">
-        <v>11.1</v>
+        <v>14</v>
+      </c>
+      <c r="G123" s="7" t="s">
+        <v>20</v>
       </c>
       <c r="H123" s="8">
         <v>2007</v>
@@ -4294,31 +4322,301 @@
     </row>
     <row r="124" spans="1:10" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B124" s="4">
-        <v>83</v>
+        <v>261</v>
       </c>
       <c r="C124" s="5">
-        <v>6.1</v>
+        <v>7.9</v>
       </c>
       <c r="D124" s="5"/>
       <c r="E124" s="6">
+        <v>2</v>
+      </c>
+      <c r="F124" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G124" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H124" s="8">
+        <v>2007</v>
+      </c>
+      <c r="I124" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="J124" s="8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A125" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="B125" s="4">
+        <v>246</v>
+      </c>
+      <c r="C125" s="5">
+        <v>9.6</v>
+      </c>
+      <c r="D125" s="5"/>
+      <c r="E125" s="6">
+        <v>2</v>
+      </c>
+      <c r="F125" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G125" s="9">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="H125" s="8">
+        <v>2007</v>
+      </c>
+      <c r="I125" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="J125" s="8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A126" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="B126" s="4">
+        <v>246</v>
+      </c>
+      <c r="C126" s="5">
+        <v>11.8</v>
+      </c>
+      <c r="D126" s="5"/>
+      <c r="E126" s="6">
+        <v>1.7</v>
+      </c>
+      <c r="F126" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G126" s="9">
+        <v>11.1</v>
+      </c>
+      <c r="H126" s="8">
+        <v>2007</v>
+      </c>
+      <c r="I126" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="J126" s="8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A127" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="B127" s="4">
+        <v>246</v>
+      </c>
+      <c r="C127" s="5">
+        <v>6.4</v>
+      </c>
+      <c r="D127" s="5"/>
+      <c r="E127" s="6">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="F127" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G127" s="9">
+        <v>6.2</v>
+      </c>
+      <c r="H127" s="8">
+        <v>2007</v>
+      </c>
+      <c r="I127" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="J127" s="8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A128" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="B128" s="4">
+        <v>66</v>
+      </c>
+      <c r="C128" s="5">
+        <v>5.7</v>
+      </c>
+      <c r="D128" s="5"/>
+      <c r="E128" s="6">
+        <v>3.6</v>
+      </c>
+      <c r="F128" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G128" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H128" s="8">
+        <v>2007</v>
+      </c>
+      <c r="I128" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="J128" s="8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A129" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="B129" s="4">
+        <v>66</v>
+      </c>
+      <c r="C129" s="5">
+        <v>12.3</v>
+      </c>
+      <c r="D129" s="5"/>
+      <c r="E129" s="6">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="F129" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G129" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H129" s="8">
+        <v>2007</v>
+      </c>
+      <c r="I129" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="J129" s="8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A130" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="B130" s="4">
+        <v>66</v>
+      </c>
+      <c r="C130" s="5">
+        <v>7.7</v>
+      </c>
+      <c r="D130" s="5"/>
+      <c r="E130" s="6">
+        <v>4</v>
+      </c>
+      <c r="F130" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G130" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H130" s="8">
+        <v>2007</v>
+      </c>
+      <c r="I130" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="J130" s="8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A131" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="B131" s="4">
+        <v>83</v>
+      </c>
+      <c r="C131" s="5">
+        <v>8.9</v>
+      </c>
+      <c r="D131" s="5"/>
+      <c r="E131" s="6">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="F131" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G131" s="9">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="H131" s="8">
+        <v>2007</v>
+      </c>
+      <c r="I131" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="J131" s="8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A132" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="B132" s="4">
+        <v>83</v>
+      </c>
+      <c r="C132" s="5">
+        <v>11.2</v>
+      </c>
+      <c r="D132" s="5"/>
+      <c r="E132" s="6">
+        <v>5.3</v>
+      </c>
+      <c r="F132" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G132" s="9">
+        <v>11.1</v>
+      </c>
+      <c r="H132" s="8">
+        <v>2007</v>
+      </c>
+      <c r="I132" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="J132" s="8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A133" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="B133" s="4">
+        <v>83</v>
+      </c>
+      <c r="C133" s="5">
+        <v>6.1</v>
+      </c>
+      <c r="D133" s="5"/>
+      <c r="E133" s="6">
         <v>3.8</v>
       </c>
-      <c r="F124" s="7" t="s">
+      <c r="F133" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="G124" s="9">
+      <c r="G133" s="9">
         <v>6.2</v>
       </c>
-      <c r="H124" s="8">
-        <v>2007</v>
-      </c>
-      <c r="I124" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="J124" s="8" t="s">
+      <c r="H133" s="8">
+        <v>2007</v>
+      </c>
+      <c r="I133" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="J133" s="8" t="s">
         <v>13</v>
       </c>
     </row>
